--- a/programming-main/assignment/jobs.xlsx
+++ b/programming-main/assignment/jobs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janic\Janice\UVA\Third Year\Spring\DS 3001\programming-main\assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janic\Janice\UVA\Third Year\Spring\DS 3001\DS-3001-Material\programming-main\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25769FCD-A482-4F48-B9B5-E706228DABB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17DC2E1-CB2A-4544-BEDC-10BD1E781BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CB138EC1-A987-4E74-B185-FF72839995FD}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>office setting</t>
   </si>
   <si>
-    <t>Job Outlook 2022 to 2023</t>
-  </si>
-  <si>
     <t>software developers/quality assurance analysts/testers</t>
   </si>
   <si>
@@ -86,18 +83,6 @@
     <t>federal government/r&amp;d companies, team based with egineers/scientists/other specialists</t>
   </si>
   <si>
-    <t>about 17,700 new openings, 35% projected growth</t>
-  </si>
-  <si>
-    <t>about 153,900 new openings, 25% projected growth</t>
-  </si>
-  <si>
-    <t>about 10,200 new opennings, 8% projected growth</t>
-  </si>
-  <si>
-    <t>about 3,500 new openings, 30% projected growth</t>
-  </si>
-  <si>
     <t>postsecondary teachers</t>
   </si>
   <si>
@@ -107,9 +92,6 @@
     <t>colleges/universities, can be part time if coming from a solid industry experience background</t>
   </si>
   <si>
-    <t>about 118,800 new openings, 8% projected growth</t>
-  </si>
-  <si>
     <t>computer systems analysts</t>
   </si>
   <si>
@@ -119,18 +101,12 @@
     <t>any organization that relies on large scale computer systems</t>
   </si>
   <si>
-    <t>about 37,600 new openings, 10% projected growth</t>
-  </si>
-  <si>
     <t>bachelor's degree (CS with several languages)</t>
   </si>
   <si>
     <t>office setting (computer systems design industry)</t>
   </si>
   <si>
-    <t>about 6,700 new openings, -11% projected growth (on the decline)</t>
-  </si>
-  <si>
     <t>operations research analysts</t>
   </si>
   <si>
@@ -140,13 +116,37 @@
     <t>office setting with travel for clients</t>
   </si>
   <si>
-    <t>about 9,800 new openings, 23% projected growth</t>
-  </si>
-  <si>
     <t>Expected Minimum Education Requirements</t>
   </si>
   <si>
     <t>Ranking</t>
+  </si>
+  <si>
+    <t>Job Outlook 2022 to 2032</t>
+  </si>
+  <si>
+    <t>about 153,900 new openings per year, 25% projected growth</t>
+  </si>
+  <si>
+    <t>about 10,200 new opennings per year, 8% projected growth</t>
+  </si>
+  <si>
+    <t>about 17,700 new openings per year, 35% projected growth</t>
+  </si>
+  <si>
+    <t>about 37,600 new openings per year, 10% projected growth</t>
+  </si>
+  <si>
+    <t>about 6,700 new openings per year, -11% projected growth (on the decline)</t>
+  </si>
+  <si>
+    <t>about 3,500 new openings per year, 30% projected growth</t>
+  </si>
+  <si>
+    <t>about 118,800 new openings per year, 8% projected growth</t>
+  </si>
+  <si>
+    <t>about 9,800 new openings per year, 23% projected growth</t>
   </si>
 </sst>
 </file>
@@ -194,11 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -536,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249ADF18-3830-481E-9A2E-40A8F0B6BA68}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,187 +544,187 @@
     <col min="3" max="3" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="76" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1">
+        <v>127260</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>112120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>103500</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>127260</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>112120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
-        <v>103500</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>102240</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>97800</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>99960</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>80840</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>85720</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3">
-        <v>102240</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>97800</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3">
-        <v>99960</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3">
-        <v>80840</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3">
-        <v>85720</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
